--- a/stock_historical_data/3mo/JUSTDIAL.NS.xlsx
+++ b/stock_historical_data/3mo/JUSTDIAL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,60 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B46" t="n">
+        <v>951.9000244140625</v>
+      </c>
+      <c r="C46" t="n">
+        <v>960</v>
+      </c>
+      <c r="D46" t="n">
+        <v>941</v>
+      </c>
+      <c r="E46" t="n">
+        <v>941.0499877929688</v>
+      </c>
+      <c r="F46" t="n">
+        <v>941.0499877929688</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>22</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/JUSTDIAL.NS.xlsx
+++ b/stock_historical_data/3mo/JUSTDIAL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>backup</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>detect_structure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>1</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>2</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>1</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>1</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>2</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>1</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>2</v>
       </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2905,7 +3042,12 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/JUSTDIAL.NS.xlsx
+++ b/stock_historical_data/3mo/JUSTDIAL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>2</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>2</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>1</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>2</v>
       </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>1</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,113 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1395</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1018.650024414062</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1105.800048828125</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>21666881</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>35</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1158.099975585938</v>
+      </c>
+      <c r="D48" t="n">
+        <v>970.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>4587553</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>48</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
